--- a/hueristics_and_routing/heuristitcs/result.xlsx
+++ b/hueristics_and_routing/heuristitcs/result.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -443,13 +443,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>848.2951341100852</v>
+        <v>769.7316370479966</v>
       </c>
       <c r="E2" t="n">
-        <v>56.11341758779395</v>
+        <v>44.60639946666663</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -465,13 +465,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>285.270142468944</v>
+        <v>769.7316370479966</v>
       </c>
       <c r="E3" t="n">
-        <v>47.35556389081282</v>
+        <v>44.60639946666663</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>431.7703200479737</v>
+        <v>87.65601814209367</v>
       </c>
       <c r="E4" t="n">
-        <v>18.96347798572674</v>
+        <v>38.79204969999995</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>100.6820575335587</v>
+        <v>25.16918808527407</v>
       </c>
       <c r="E5" t="n">
-        <v>17.33257088137543</v>
+        <v>32.64069303333332</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -525,195 +525,195 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>470.1180227915829</v>
+        <v>29.80906704353401</v>
       </c>
       <c r="E6" t="n">
-        <v>42.41994729686229</v>
+        <v>47.83130940000001</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>820.0514770363225</v>
+        <v>787.6125703653088</v>
       </c>
       <c r="E7" t="n">
-        <v>38.41499155164587</v>
+        <v>29.29527896666667</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>883.3939433500927</v>
+        <v>787.6125703653088</v>
       </c>
       <c r="E8" t="n">
-        <v>15.54051305359735</v>
+        <v>29.29527896666667</v>
       </c>
       <c r="F8" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>991.1444577946677</v>
+        <v>525.492393199529</v>
       </c>
       <c r="E9" t="n">
-        <v>46.84686920334451</v>
+        <v>28.96562083333333</v>
       </c>
       <c r="F9" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>304.039965312928</v>
+        <v>525.492393199529</v>
       </c>
       <c r="E10" t="n">
-        <v>13.14398073216512</v>
+        <v>28.96562083333333</v>
       </c>
       <c r="F10" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>903.2342400803755</v>
+        <v>487.8693958242075</v>
       </c>
       <c r="E11" t="n">
-        <v>49.19960249419739</v>
+        <v>20.38426086666675</v>
       </c>
       <c r="F11" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>612.178562987363</v>
+        <v>148.773472488916</v>
       </c>
       <c r="E12" t="n">
-        <v>21.96445698558182</v>
+        <v>2.538657499999999</v>
       </c>
       <c r="F12" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>955.1659927737201</v>
+        <v>339.5409945165738</v>
       </c>
       <c r="E13" t="n">
-        <v>46.29776017451729</v>
+        <v>30.14752190000002</v>
       </c>
       <c r="F13" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>636.5809021036839</v>
+        <v>289.9233907359885</v>
       </c>
       <c r="E14" t="n">
-        <v>31.66566163573953</v>
+        <v>13.92938173333334</v>
       </c>
       <c r="F14" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -723,41 +723,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>765.5232817402575</v>
+        <v>208.8442308547674</v>
       </c>
       <c r="E15" t="n">
-        <v>35.5336289729978</v>
+        <v>29.82572269999991</v>
       </c>
       <c r="F15" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>929.5354686470819</v>
+        <v>208.8442308547674</v>
       </c>
       <c r="E16" t="n">
-        <v>5.7878548408803</v>
+        <v>29.82572269999991</v>
       </c>
       <c r="F16" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -767,41 +767,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>780.0343525113713</v>
+        <v>174.5766779768455</v>
       </c>
       <c r="E17" t="n">
-        <v>25.29264832736544</v>
+        <v>21.60182480000003</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>61.7693060155143</v>
+        <v>798.8994623749168</v>
       </c>
       <c r="E18" t="n">
-        <v>3.721269318982195</v>
+        <v>8.971194549999836</v>
       </c>
       <c r="F18" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -811,41 +811,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>416.14357135311</v>
+        <v>140.6304962022696</v>
       </c>
       <c r="E19" t="n">
-        <v>12.06269441571487</v>
+        <v>8.391974166666671</v>
       </c>
       <c r="F19" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>72.74066698201932</v>
+        <v>140.6304962022696</v>
       </c>
       <c r="E20" t="n">
-        <v>18.56772342201953</v>
+        <v>8.391974166666671</v>
       </c>
       <c r="F20" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,19 +855,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>93.15272691706195</v>
+        <v>140.6304962022696</v>
       </c>
       <c r="E21" t="n">
-        <v>31.80612164728313</v>
+        <v>8.391974166666671</v>
       </c>
       <c r="F21" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -877,41 +877,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>827.2884185595904</v>
+        <v>610.3550818536023</v>
       </c>
       <c r="E22" t="n">
-        <v>4.334024984555072</v>
+        <v>44.04046083333338</v>
       </c>
       <c r="F22" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>4.761127064586617</v>
+        <v>335.3893774367461</v>
       </c>
       <c r="E23" t="n">
-        <v>50.96345594020249</v>
+        <v>32.54081496666674</v>
       </c>
       <c r="F23" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -921,19 +921,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>883.4401022201637</v>
+        <v>765.6982146833907</v>
       </c>
       <c r="E24" t="n">
-        <v>40.01544389021547</v>
+        <v>17.87946979999992</v>
       </c>
       <c r="F24" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>405.9489284862066</v>
+        <v>242.136728538957</v>
       </c>
       <c r="E25" t="n">
-        <v>1.189325967593049</v>
+        <v>36.02831509999987</v>
       </c>
       <c r="F25" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -965,41 +965,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>584.0911438487819</v>
+        <v>765.6982146833907</v>
       </c>
       <c r="E26" t="n">
-        <v>5.688467970860302</v>
+        <v>17.87946979999992</v>
       </c>
       <c r="F26" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>768.5348494818318</v>
+        <v>418.8960616401164</v>
       </c>
       <c r="E27" t="n">
-        <v>22.46890851194672</v>
+        <v>19.68174396666666</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1009,19 +1009,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>959.210048231238</v>
+        <v>99.6869215201441</v>
       </c>
       <c r="E28" t="n">
-        <v>46.87340539144202</v>
+        <v>28.76705579999998</v>
       </c>
       <c r="F28" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1031,19 +1031,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>694.4379933573655</v>
+        <v>784.4529796120769</v>
       </c>
       <c r="E29" t="n">
-        <v>22.40152996008942</v>
+        <v>20.80791213333333</v>
       </c>
       <c r="F29" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1053,41 +1053,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>749.0929039894254</v>
+        <v>305.3158486390312</v>
       </c>
       <c r="E30" t="n">
-        <v>48.71724917023835</v>
+        <v>59.03707323333333</v>
       </c>
       <c r="F30" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>291.6940515626338</v>
+        <v>305.3158486390312</v>
       </c>
       <c r="E31" t="n">
-        <v>19.99686822916692</v>
+        <v>59.03707323333333</v>
       </c>
       <c r="F31" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1097,173 +1097,173 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>857.0837094050949</v>
+        <v>553.524756235769</v>
       </c>
       <c r="E32" t="n">
-        <v>22.85391776835763</v>
+        <v>19.77626980000002</v>
       </c>
       <c r="F32" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>393.4190820258227</v>
+        <v>553.524756235769</v>
       </c>
       <c r="E33" t="n">
-        <v>54.06095703123651</v>
+        <v>19.77626980000002</v>
       </c>
       <c r="F33" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>488.3449148951331</v>
+        <v>608.8947844204959</v>
       </c>
       <c r="E34" t="n">
-        <v>25.90730195418519</v>
+        <v>43.76289586666667</v>
       </c>
       <c r="F34" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>865.1151662040502</v>
+        <v>485.081536495476</v>
       </c>
       <c r="E35" t="n">
-        <v>58.11058792854601</v>
+        <v>45.0322739333335</v>
       </c>
       <c r="F35" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>794.2352325097891</v>
+        <v>485.081536495476</v>
       </c>
       <c r="E36" t="n">
-        <v>49.0725065527804</v>
+        <v>45.0322739333335</v>
       </c>
       <c r="F36" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>796.6698407339863</v>
+        <v>485.081536495476</v>
       </c>
       <c r="E37" t="n">
-        <v>57.22702599696413</v>
+        <v>45.0322739333335</v>
       </c>
       <c r="F37" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>12.08682807604782</v>
+        <v>251.1972746412503</v>
       </c>
       <c r="E38" t="n">
-        <v>58.98581973159617</v>
+        <v>32.87379920000001</v>
       </c>
       <c r="F38" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>156.5436375683639</v>
+        <v>854.7688793882844</v>
       </c>
       <c r="E39" t="n">
-        <v>23.9701286272616</v>
+        <v>9.596424599999864</v>
       </c>
       <c r="F39" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1273,41 +1273,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>79.79714638867881</v>
+        <v>104.406323262665</v>
       </c>
       <c r="E40" t="n">
-        <v>7.632607065680531</v>
+        <v>46.84878609999998</v>
       </c>
       <c r="F40" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>7.563282159157097</v>
+        <v>726.2363932687731</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1548280147701462</v>
+        <v>33.43113619999997</v>
       </c>
       <c r="F41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1317,19 +1317,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>565.1820335519733</v>
+        <v>939.4088760970626</v>
       </c>
       <c r="E42" t="n">
-        <v>32.29779864161219</v>
+        <v>16.64214709999999</v>
       </c>
       <c r="F42" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1339,19 +1339,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>74.28888961416669</v>
+        <v>32.76403376006056</v>
       </c>
       <c r="E43" t="n">
-        <v>41.80405009499827</v>
+        <v>31.32065269999998</v>
       </c>
       <c r="F43" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1361,41 +1361,41 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>163.9188721198589</v>
+        <v>726.2363932687731</v>
       </c>
       <c r="E44" t="n">
-        <v>21.92306683961624</v>
+        <v>33.43113619999997</v>
       </c>
       <c r="F44" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>821.3624726067064</v>
+        <v>411.567094396567</v>
       </c>
       <c r="E45" t="n">
-        <v>55.37496995828951</v>
+        <v>11.88083069999993</v>
       </c>
       <c r="F45" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1405,41 +1405,41 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>574.1609805580229</v>
+        <v>407.5238824279513</v>
       </c>
       <c r="E46" t="n">
-        <v>6.26177693179352</v>
+        <v>43.19231919999993</v>
       </c>
       <c r="F46" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>520.2571098933695</v>
+        <v>337.972250212857</v>
       </c>
       <c r="E47" t="n">
-        <v>35.95505302132733</v>
+        <v>32.45148689999996</v>
       </c>
       <c r="F47" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1449,19 +1449,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>951.1898622494191</v>
+        <v>32.76403376006056</v>
       </c>
       <c r="E48" t="n">
-        <v>3.703093194841131</v>
+        <v>31.32065269999998</v>
       </c>
       <c r="F48" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1471,63 +1471,63 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>867.7880917791044</v>
+        <v>32.76403376006056</v>
       </c>
       <c r="E49" t="n">
-        <v>1.073832354386468</v>
+        <v>31.32065269999998</v>
       </c>
       <c r="F49" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>252.1702787405811</v>
+        <v>247.6357728281291</v>
       </c>
       <c r="E50" t="n">
-        <v>46.57594791064889</v>
+        <v>6.993587149999939</v>
       </c>
       <c r="F50" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>524.6938440729282</v>
+        <v>247.6357728281291</v>
       </c>
       <c r="E51" t="n">
-        <v>50.90813871480327</v>
+        <v>6.993587149999939</v>
       </c>
       <c r="F51" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1537,41 +1537,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>393.0021408243338</v>
+        <v>318.2472949020739</v>
       </c>
       <c r="E52" t="n">
-        <v>19.58753510988981</v>
+        <v>58.84060439999996</v>
       </c>
       <c r="F52" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>935.4940893731546</v>
+        <v>247.6357728281291</v>
       </c>
       <c r="E53" t="n">
-        <v>47.59830716876013</v>
+        <v>6.993587149999939</v>
       </c>
       <c r="F53" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1581,19 +1581,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>75.87602768384386</v>
+        <v>62.19558877291274</v>
       </c>
       <c r="E54" t="n">
-        <v>36.14358759636434</v>
+        <v>26.11844435</v>
       </c>
       <c r="F54" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1603,63 +1603,63 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>345.857424605987</v>
+        <v>247.6357728281291</v>
       </c>
       <c r="E55" t="n">
-        <v>34.29702020289187</v>
+        <v>6.993587149999939</v>
       </c>
       <c r="F55" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>670.6375500669237</v>
+        <v>247.6357728281291</v>
       </c>
       <c r="E56" t="n">
-        <v>22.74013800975354</v>
+        <v>6.993587149999939</v>
       </c>
       <c r="F56" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>969.7345922428649</v>
+        <v>668.2422100745025</v>
       </c>
       <c r="E57" t="n">
-        <v>41.63965130034421</v>
+        <v>5.506594500000006</v>
       </c>
       <c r="F57" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1669,41 +1669,41 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>21.94245300907642</v>
+        <v>32.76403376006056</v>
       </c>
       <c r="E58" t="n">
-        <v>49.94710420385854</v>
+        <v>31.32065269999998</v>
       </c>
       <c r="F58" t="n">
-        <v>388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>76.79418347415049</v>
+        <v>51.15786037794896</v>
       </c>
       <c r="E59" t="n">
-        <v>18.64459036804192</v>
+        <v>59.83405449999998</v>
       </c>
       <c r="F59" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1713,41 +1713,41 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>506.701529800077</v>
+        <v>347.8225584987667</v>
       </c>
       <c r="E60" t="n">
-        <v>48.73309719376471</v>
+        <v>45.56277120000004</v>
       </c>
       <c r="F60" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>85.0182596683735</v>
+        <v>347.8225584987667</v>
       </c>
       <c r="E61" t="n">
-        <v>17.63073923181855</v>
+        <v>45.56277120000004</v>
       </c>
       <c r="F61" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1757,41 +1757,41 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>866.6653982863063</v>
+        <v>347.8225584987667</v>
       </c>
       <c r="E62" t="n">
-        <v>42.66826234601012</v>
+        <v>45.56277120000004</v>
       </c>
       <c r="F62" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>823.8831982280826</v>
+        <v>736.1934853201092</v>
       </c>
       <c r="E63" t="n">
-        <v>15.41218992380936</v>
+        <v>11.42039246666673</v>
       </c>
       <c r="F63" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1801,41 +1801,41 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>179.7241691144882</v>
+        <v>937.2267024894827</v>
       </c>
       <c r="E64" t="n">
-        <v>3.558091532649996</v>
+        <v>40.13171270000004</v>
       </c>
       <c r="F64" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>733.8222277148161</v>
+        <v>645.5220304151007</v>
       </c>
       <c r="E65" t="n">
-        <v>35.63026913121053</v>
+        <v>46.6279328</v>
       </c>
       <c r="F65" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1845,41 +1845,41 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>822.7554491600022</v>
+        <v>937.2267024894827</v>
       </c>
       <c r="E66" t="n">
-        <v>52.72603225218336</v>
+        <v>40.13171270000004</v>
       </c>
       <c r="F66" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>264.8299263782101</v>
+        <v>645.5220304151007</v>
       </c>
       <c r="E67" t="n">
-        <v>16.51997584263245</v>
+        <v>46.6279328</v>
       </c>
       <c r="F67" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1889,41 +1889,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>899.5694400768261</v>
+        <v>435.2941280507948</v>
       </c>
       <c r="E68" t="n">
-        <v>40.001365563734</v>
+        <v>37.08591619999993</v>
       </c>
       <c r="F68" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>657.3456793043297</v>
+        <v>322.5044918445637</v>
       </c>
       <c r="E69" t="n">
-        <v>53.13032537003392</v>
+        <v>9.784742416666631</v>
       </c>
       <c r="F69" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1933,41 +1933,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>846.4912360726157</v>
+        <v>874.7707599088317</v>
       </c>
       <c r="E70" t="n">
-        <v>30.42324037427511</v>
+        <v>40.54230149999989</v>
       </c>
       <c r="F70" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>936.2148664955748</v>
+        <v>210.18146095681</v>
       </c>
       <c r="E71" t="n">
-        <v>53.97413637049317</v>
+        <v>49.79580874999999</v>
       </c>
       <c r="F71" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1977,41 +1977,41 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>309.2952242722968</v>
+        <v>708.6553758598166</v>
       </c>
       <c r="E72" t="n">
-        <v>13.1973506577292</v>
+        <v>49.79580874999999</v>
       </c>
       <c r="F72" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>235.9754220859613</v>
+        <v>878.0930815447937</v>
       </c>
       <c r="E73" t="n">
-        <v>50.42200341027819</v>
+        <v>28.39495908333345</v>
       </c>
       <c r="F73" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2021,41 +2021,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>774.944116037339</v>
+        <v>878.0930815447937</v>
       </c>
       <c r="E74" t="n">
-        <v>40.4938707818651</v>
+        <v>28.39495908333345</v>
       </c>
       <c r="F74" t="n">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>15</v>
-      </c>
-      <c r="C75" t="n">
-        <v>20</v>
-      </c>
-      <c r="D75" t="n">
-        <v>95.50718101044185</v>
-      </c>
-      <c r="E75" t="n">
-        <v>43.60313472664484</v>
-      </c>
-      <c r="F75" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/hueristics_and_routing/heuristitcs/result.xlsx
+++ b/hueristics_and_routing/heuristitcs/result.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -443,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>769.7316370479966</v>
+        <v>90.42474692456017</v>
       </c>
       <c r="E2" t="n">
-        <v>44.60639946666663</v>
+        <v>15.6034186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>769.7316370479966</v>
+        <v>90.42474692456017</v>
       </c>
       <c r="E3" t="n">
-        <v>44.60639946666663</v>
+        <v>15.6034186</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -484,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>87.65601814209367</v>
+        <v>376.1103167699184</v>
       </c>
       <c r="E4" t="n">
-        <v>38.79204969999995</v>
+        <v>14.13070653333332</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>25.16918808527407</v>
+        <v>376.1103167699184</v>
       </c>
       <c r="E5" t="n">
-        <v>32.64069303333332</v>
+        <v>14.13070653333332</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>29.80906704353401</v>
+        <v>191.9859504570195</v>
       </c>
       <c r="E6" t="n">
-        <v>47.83130940000001</v>
+        <v>36.84508823333334</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>787.6125703653088</v>
+        <v>713.0445000303007</v>
       </c>
       <c r="E7" t="n">
-        <v>29.29527896666667</v>
+        <v>44.56986926666667</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>787.6125703653088</v>
+        <v>713.0445000303007</v>
       </c>
       <c r="E8" t="n">
-        <v>29.29527896666667</v>
+        <v>44.56986926666667</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>525.492393199529</v>
+        <v>434.2435174184793</v>
       </c>
       <c r="E9" t="n">
-        <v>28.96562083333333</v>
+        <v>41.15908330000002</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>525.492393199529</v>
+        <v>887.0252242517308</v>
       </c>
       <c r="E10" t="n">
-        <v>28.96562083333333</v>
+        <v>53.27065206666668</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>487.8693958242075</v>
+        <v>410.099547830614</v>
       </c>
       <c r="E11" t="n">
-        <v>20.38426086666675</v>
+        <v>29.42476406666663</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -660,13 +660,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>148.773472488916</v>
+        <v>644.3958299090154</v>
       </c>
       <c r="E12" t="n">
-        <v>2.538657499999999</v>
+        <v>25.10393740000001</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>339.5409945165738</v>
+        <v>614.2855477543199</v>
       </c>
       <c r="E13" t="n">
-        <v>30.14752190000002</v>
+        <v>9.547780566666688</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>289.9233907359885</v>
+        <v>578.8527881979826</v>
       </c>
       <c r="E14" t="n">
-        <v>13.92938173333334</v>
+        <v>55.74687756666674</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -719,20 +719,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>208.8442308547674</v>
+        <v>820.0796780213714</v>
       </c>
       <c r="E15" t="n">
-        <v>29.82572269999991</v>
+        <v>0.02318983333327651</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -745,16 +745,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>208.8442308547674</v>
+        <v>820.0796780213714</v>
       </c>
       <c r="E16" t="n">
-        <v>29.82572269999991</v>
+        <v>0.02318983333327651</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>174.5766779768455</v>
+        <v>839.89766492325</v>
       </c>
       <c r="E17" t="n">
-        <v>21.60182480000003</v>
+        <v>55.63375608333342</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>798.8994623749168</v>
+        <v>579.0326123644481</v>
       </c>
       <c r="E18" t="n">
-        <v>8.971194549999836</v>
+        <v>39.17503825000006</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>140.6304962022696</v>
+        <v>678.4862561588525</v>
       </c>
       <c r="E19" t="n">
-        <v>8.391974166666671</v>
+        <v>31.11049824999998</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -829,20 +829,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>140.6304962022696</v>
+        <v>301.2174921321566</v>
       </c>
       <c r="E20" t="n">
-        <v>8.391974166666671</v>
+        <v>5.772194000000013</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -851,20 +851,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>140.6304962022696</v>
+        <v>271.5445023280336</v>
       </c>
       <c r="E21" t="n">
-        <v>8.391974166666671</v>
+        <v>9.414982499999951</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -873,20 +873,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>610.3550818536023</v>
+        <v>271.5445023280336</v>
       </c>
       <c r="E22" t="n">
-        <v>44.04046083333338</v>
+        <v>9.414982499999951</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -895,20 +895,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>335.3893774367461</v>
+        <v>256.2402061795583</v>
       </c>
       <c r="E23" t="n">
-        <v>32.54081496666674</v>
+        <v>27.6885534999999</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -917,20 +917,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>765.6982146833907</v>
+        <v>504.1897267218446</v>
       </c>
       <c r="E24" t="n">
-        <v>17.87946979999992</v>
+        <v>53.14356683333335</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -939,20 +939,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>242.136728538957</v>
+        <v>782.8950235222583</v>
       </c>
       <c r="E25" t="n">
-        <v>36.02831509999987</v>
+        <v>32.22722086666636</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -961,20 +961,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>765.6982146833907</v>
+        <v>782.8950235222583</v>
       </c>
       <c r="E26" t="n">
-        <v>17.87946979999992</v>
+        <v>32.22722086666636</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -983,20 +983,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D27" t="n">
-        <v>418.8960616401164</v>
+        <v>299.4232490418945</v>
       </c>
       <c r="E27" t="n">
-        <v>19.68174396666666</v>
+        <v>38.49111958333344</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1005,20 +1005,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>99.6869215201441</v>
+        <v>230.6041731153382</v>
       </c>
       <c r="E28" t="n">
-        <v>28.76705579999998</v>
+        <v>34.71870196666714</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1027,20 +1027,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>784.4529796120769</v>
+        <v>227.4096886476036</v>
       </c>
       <c r="E29" t="n">
-        <v>20.80791213333333</v>
+        <v>1.463204533334192</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1049,20 +1049,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>305.3158486390312</v>
+        <v>227.4096886476036</v>
       </c>
       <c r="E30" t="n">
-        <v>59.03707323333333</v>
+        <v>1.463204533334192</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1071,20 +1071,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D31" t="n">
-        <v>305.3158486390312</v>
+        <v>636.5405486435629</v>
       </c>
       <c r="E31" t="n">
-        <v>59.03707323333333</v>
+        <v>13.67025680000006</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1093,20 +1093,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>553.524756235769</v>
+        <v>773.4333700715797</v>
       </c>
       <c r="E32" t="n">
-        <v>19.77626980000002</v>
+        <v>30.36734826666702</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>553.524756235769</v>
+        <v>997.1036191222956</v>
       </c>
       <c r="E33" t="n">
-        <v>19.77626980000002</v>
+        <v>11.64709860000005</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
-        <v>608.8947844204959</v>
+        <v>752.0712815239094</v>
       </c>
       <c r="E34" t="n">
-        <v>43.76289586666667</v>
+        <v>21.3336115499992</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1159,20 +1159,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D35" t="n">
-        <v>485.081536495476</v>
+        <v>925.5467026139377</v>
       </c>
       <c r="E35" t="n">
-        <v>45.0322739333335</v>
+        <v>57.30459316666676</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1181,20 +1181,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
         <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>485.081536495476</v>
+        <v>684.3230968407588</v>
       </c>
       <c r="E36" t="n">
-        <v>45.0322739333335</v>
+        <v>18.60240250000038</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1203,836 +1203,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
         <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>485.081536495476</v>
+        <v>684.3230968407588</v>
       </c>
       <c r="E37" t="n">
-        <v>45.0322739333335</v>
+        <v>18.60240250000038</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>8</v>
-      </c>
-      <c r="D38" t="n">
-        <v>251.1972746412503</v>
-      </c>
-      <c r="E38" t="n">
-        <v>32.87379920000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>854.7688793882844</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.596424599999864</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>104.406323262665</v>
-      </c>
-      <c r="E40" t="n">
-        <v>46.84878609999998</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8</v>
-      </c>
-      <c r="D41" t="n">
-        <v>726.2363932687731</v>
-      </c>
-      <c r="E41" t="n">
-        <v>33.43113619999997</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" t="n">
-        <v>939.4088760970626</v>
-      </c>
-      <c r="E42" t="n">
-        <v>16.64214709999999</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>8</v>
-      </c>
-      <c r="D43" t="n">
-        <v>32.76403376006056</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31.32065269999998</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>726.2363932687731</v>
-      </c>
-      <c r="E44" t="n">
-        <v>33.43113619999997</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8</v>
-      </c>
-      <c r="D45" t="n">
-        <v>411.567094396567</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.88083069999993</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="n">
-        <v>8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>407.5238824279513</v>
-      </c>
-      <c r="E46" t="n">
-        <v>43.19231919999993</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>3</v>
-      </c>
-      <c r="C47" t="n">
-        <v>8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>337.972250212857</v>
-      </c>
-      <c r="E47" t="n">
-        <v>32.45148689999996</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>8</v>
-      </c>
-      <c r="D48" t="n">
-        <v>32.76403376006056</v>
-      </c>
-      <c r="E48" t="n">
-        <v>31.32065269999998</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>32.76403376006056</v>
-      </c>
-      <c r="E49" t="n">
-        <v>31.32065269999998</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" t="n">
-        <v>8</v>
-      </c>
-      <c r="D50" t="n">
-        <v>247.6357728281291</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6.993587149999939</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>247.6357728281291</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6.993587149999939</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>8</v>
-      </c>
-      <c r="D52" t="n">
-        <v>318.2472949020739</v>
-      </c>
-      <c r="E52" t="n">
-        <v>58.84060439999996</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>8</v>
-      </c>
-      <c r="D53" t="n">
-        <v>247.6357728281291</v>
-      </c>
-      <c r="E53" t="n">
-        <v>6.993587149999939</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>8</v>
-      </c>
-      <c r="D54" t="n">
-        <v>62.19558877291274</v>
-      </c>
-      <c r="E54" t="n">
-        <v>26.11844435</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8</v>
-      </c>
-      <c r="D55" t="n">
-        <v>247.6357728281291</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6.993587149999939</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3</v>
-      </c>
-      <c r="C56" t="n">
-        <v>8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>247.6357728281291</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6.993587149999939</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>668.2422100745025</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5.506594500000006</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>32.76403376006056</v>
-      </c>
-      <c r="E58" t="n">
-        <v>31.32065269999998</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>51.15786037794896</v>
-      </c>
-      <c r="E59" t="n">
-        <v>59.83405449999998</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3</v>
-      </c>
-      <c r="C60" t="n">
-        <v>8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>347.8225584987667</v>
-      </c>
-      <c r="E60" t="n">
-        <v>45.56277120000004</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3</v>
-      </c>
-      <c r="C61" t="n">
-        <v>8</v>
-      </c>
-      <c r="D61" t="n">
-        <v>347.8225584987667</v>
-      </c>
-      <c r="E61" t="n">
-        <v>45.56277120000004</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>8</v>
-      </c>
-      <c r="D62" t="n">
-        <v>347.8225584987667</v>
-      </c>
-      <c r="E62" t="n">
-        <v>45.56277120000004</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>736.1934853201092</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11.42039246666673</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>937.2267024894827</v>
-      </c>
-      <c r="E64" t="n">
-        <v>40.13171270000004</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>6</v>
-      </c>
-      <c r="D65" t="n">
-        <v>645.5220304151007</v>
-      </c>
-      <c r="E65" t="n">
-        <v>46.6279328</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>937.2267024894827</v>
-      </c>
-      <c r="E66" t="n">
-        <v>40.13171270000004</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>6</v>
-      </c>
-      <c r="D67" t="n">
-        <v>645.5220304151007</v>
-      </c>
-      <c r="E67" t="n">
-        <v>46.6279328</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>435.2941280507948</v>
-      </c>
-      <c r="E68" t="n">
-        <v>37.08591619999993</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>5</v>
-      </c>
-      <c r="C69" t="n">
-        <v>20</v>
-      </c>
-      <c r="D69" t="n">
-        <v>322.5044918445637</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9.784742416666631</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>5</v>
-      </c>
-      <c r="C70" t="n">
-        <v>20</v>
-      </c>
-      <c r="D70" t="n">
-        <v>874.7707599088317</v>
-      </c>
-      <c r="E70" t="n">
-        <v>40.54230149999989</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>5</v>
-      </c>
-      <c r="C71" t="n">
-        <v>20</v>
-      </c>
-      <c r="D71" t="n">
-        <v>210.18146095681</v>
-      </c>
-      <c r="E71" t="n">
-        <v>49.79580874999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5</v>
-      </c>
-      <c r="C72" t="n">
-        <v>20</v>
-      </c>
-      <c r="D72" t="n">
-        <v>708.6553758598166</v>
-      </c>
-      <c r="E72" t="n">
-        <v>49.79580874999999</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>20</v>
-      </c>
-      <c r="D73" t="n">
-        <v>878.0930815447937</v>
-      </c>
-      <c r="E73" t="n">
-        <v>28.39495908333345</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>new_heuristic</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20</v>
-      </c>
-      <c r="D74" t="n">
-        <v>878.0930815447937</v>
-      </c>
-      <c r="E74" t="n">
-        <v>28.39495908333345</v>
-      </c>
-      <c r="F74" t="n">
         <v>0</v>
       </c>
     </row>

--- a/hueristics_and_routing/heuristitcs/result.xlsx
+++ b/hueristics_and_routing/heuristitcs/result.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -416,12 +416,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>distance</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>time</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -443,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>90.42474692456017</v>
+        <v>642.7679219733545</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6034186</v>
+        <v>20.31457473333333</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>90.42474692456017</v>
+        <v>642.7679219733545</v>
       </c>
       <c r="E3" t="n">
-        <v>15.6034186</v>
+        <v>20.31457473333333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -484,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>376.1103167699184</v>
+        <v>597.75498125187</v>
       </c>
       <c r="E4" t="n">
-        <v>14.13070653333332</v>
+        <v>30.57566683333334</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>376.1103167699184</v>
+        <v>477.0098043965991</v>
       </c>
       <c r="E5" t="n">
-        <v>14.13070653333332</v>
+        <v>22.88711776666668</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -521,20 +521,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>191.9859504570195</v>
+        <v>948.1799861321342</v>
       </c>
       <c r="E6" t="n">
-        <v>36.84508823333334</v>
+        <v>18.92675466666674</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -543,20 +543,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>713.0445000303007</v>
+        <v>128.2696691792225</v>
       </c>
       <c r="E7" t="n">
-        <v>44.56986926666667</v>
+        <v>40.58960979999995</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -565,20 +565,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>713.0445000303007</v>
+        <v>874.5798335453146</v>
       </c>
       <c r="E8" t="n">
-        <v>44.56986926666667</v>
+        <v>45.60432756666671</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -587,20 +587,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>434.2435174184793</v>
+        <v>898.7174345861422</v>
       </c>
       <c r="E9" t="n">
-        <v>41.15908330000002</v>
+        <v>44.63159026666665</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -609,20 +609,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>887.0252242517308</v>
+        <v>428.7113177718129</v>
       </c>
       <c r="E10" t="n">
-        <v>53.27065206666668</v>
+        <v>4.48313306666671</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -631,20 +631,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>410.099547830614</v>
+        <v>363.6739013949409</v>
       </c>
       <c r="E11" t="n">
-        <v>29.42476406666663</v>
+        <v>28.20906950000006</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -653,20 +653,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>644.3958299090154</v>
+        <v>547.7573367974255</v>
       </c>
       <c r="E12" t="n">
-        <v>25.10393740000001</v>
+        <v>17.45390368333324</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -675,20 +675,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>614.2855477543199</v>
+        <v>547.7573367974255</v>
       </c>
       <c r="E13" t="n">
-        <v>9.547780566666688</v>
+        <v>17.45390368333324</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -697,20 +697,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>578.8527881979826</v>
+        <v>721.0845278754132</v>
       </c>
       <c r="E14" t="n">
-        <v>55.74687756666674</v>
+        <v>47.74245885000005</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -719,20 +719,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>820.0796780213714</v>
+        <v>731.4994873754331</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02318983333327651</v>
+        <v>22.02163988333336</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -741,20 +741,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>820.0796780213714</v>
+        <v>841.5848877596436</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02318983333327651</v>
+        <v>27.62617048333323</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>839.89766492325</v>
+        <v>293.0564817967825</v>
       </c>
       <c r="E17" t="n">
-        <v>55.63375608333342</v>
+        <v>8.144220766666649</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -785,20 +785,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>579.0326123644481</v>
+        <v>848.6064657588722</v>
       </c>
       <c r="E18" t="n">
-        <v>39.17503825000006</v>
+        <v>46.60815641666659</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>678.4862561588525</v>
+        <v>303.9292160845362</v>
       </c>
       <c r="E19" t="n">
-        <v>31.11049824999998</v>
+        <v>53.70323998333333</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -833,16 +833,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>301.2174921321566</v>
+        <v>448.2121697727125</v>
       </c>
       <c r="E20" t="n">
-        <v>5.772194000000013</v>
+        <v>11.83629648333317</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -851,20 +851,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>271.5445023280336</v>
+        <v>186.7221115144202</v>
       </c>
       <c r="E21" t="n">
-        <v>9.414982499999951</v>
+        <v>4.422495866666623</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -873,20 +873,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>271.5445023280336</v>
+        <v>67.15739480615593</v>
       </c>
       <c r="E22" t="n">
-        <v>9.414982499999951</v>
+        <v>56.78359380000052</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>256.2402061795583</v>
+        <v>67.15739480615593</v>
       </c>
       <c r="E23" t="n">
-        <v>27.6885534999999</v>
+        <v>56.78359380000052</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -917,20 +917,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>504.1897267218446</v>
+        <v>861.7921812601853</v>
       </c>
       <c r="E24" t="n">
-        <v>53.14356683333335</v>
+        <v>6.86291779999965</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -939,20 +939,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>782.8950235222583</v>
+        <v>57.91654975304846</v>
       </c>
       <c r="E25" t="n">
-        <v>32.22722086666636</v>
+        <v>11.67415100000017</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -961,20 +961,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>782.8950235222583</v>
+        <v>868.2245132206008</v>
       </c>
       <c r="E26" t="n">
-        <v>32.22722086666636</v>
+        <v>29.58016979999991</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>299.4232490418945</v>
+        <v>481.2080727429129</v>
       </c>
       <c r="E27" t="n">
-        <v>38.49111958333344</v>
+        <v>12.16152280000006</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>230.6041731153382</v>
+        <v>560.4315571651096</v>
       </c>
       <c r="E28" t="n">
-        <v>34.71870196666714</v>
+        <v>36.63915679999991</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1027,20 +1027,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
-        <v>227.4096886476036</v>
+        <v>144.2584183252184</v>
       </c>
       <c r="E29" t="n">
-        <v>1.463204533334192</v>
+        <v>23.99181600000065</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1049,20 +1049,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>new_heuristic</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>227.4096886476036</v>
+        <v>232.783588927472</v>
       </c>
       <c r="E30" t="n">
-        <v>1.463204533334192</v>
+        <v>47.3355512833341</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>636.5405486435629</v>
+        <v>232.783588927472</v>
       </c>
       <c r="E31" t="n">
-        <v>13.67025680000006</v>
+        <v>47.3355512833341</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>773.4333700715797</v>
+        <v>553.6321877402952</v>
       </c>
       <c r="E32" t="n">
-        <v>30.36734826666702</v>
+        <v>17.04317311666637</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33" t="n">
-        <v>997.1036191222956</v>
+        <v>916.5275729757268</v>
       </c>
       <c r="E33" t="n">
-        <v>11.64709860000005</v>
+        <v>34.67926749999924</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D34" t="n">
-        <v>752.0712815239094</v>
+        <v>916.5275729757268</v>
       </c>
       <c r="E34" t="n">
-        <v>21.3336115499992</v>
+        <v>34.67926749999924</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>925.5467026139377</v>
+        <v>85.1124626705423</v>
       </c>
       <c r="E35" t="n">
-        <v>57.30459316666676</v>
+        <v>48.95521896666605</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1181,20 +1181,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>684.3230968407588</v>
+        <v>822.6587967458181</v>
       </c>
       <c r="E36" t="n">
-        <v>18.60240250000038</v>
+        <v>4.364584666666815</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1207,18 +1207,260 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
-        <v>684.3230968407588</v>
+        <v>358.2637687600218</v>
       </c>
       <c r="E37" t="n">
-        <v>18.60240250000038</v>
+        <v>57.25282379999999</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>33</v>
+      </c>
+      <c r="D38" t="n">
+        <v>876.2048105942085</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.243461100000786</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>45</v>
+      </c>
+      <c r="D39" t="n">
+        <v>124.6155862307642</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.811352450000868</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>32</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150.6909244614653</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.829381866668882</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>32</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44</v>
+      </c>
+      <c r="D41" t="n">
+        <v>520.1484631183557</v>
+      </c>
+      <c r="E41" t="n">
+        <v>54.7035493333351</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>new_heuristic</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>37</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37</v>
+      </c>
+      <c r="D42" t="n">
+        <v>642.058284324361</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40.4405168000003</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" t="n">
+        <v>37</v>
+      </c>
+      <c r="D43" t="n">
+        <v>642.058284324361</v>
+      </c>
+      <c r="E43" t="n">
+        <v>40.4405168000003</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>37</v>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="n">
+        <v>836.0277959888335</v>
+      </c>
+      <c r="E44" t="n">
+        <v>40.34617185000207</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>37</v>
+      </c>
+      <c r="C45" t="n">
+        <v>49</v>
+      </c>
+      <c r="D45" t="n">
+        <v>524.5183579868171</v>
+      </c>
+      <c r="E45" t="n">
+        <v>37.54547608333087</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>37</v>
+      </c>
+      <c r="C46" t="n">
+        <v>55</v>
+      </c>
+      <c r="D46" t="n">
+        <v>534.6393749127164</v>
+      </c>
+      <c r="E46" t="n">
+        <v>43.43480576667298</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>new_heuristic</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>42</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42</v>
+      </c>
+      <c r="D47" t="n">
+        <v>687.5053024478257</v>
+      </c>
+      <c r="E47" t="n">
+        <v>40.39948190000041</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42</v>
+      </c>
+      <c r="D48" t="n">
+        <v>687.5053024478257</v>
+      </c>
+      <c r="E48" t="n">
+        <v>40.39948190000041</v>
+      </c>
+      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/hueristics_and_routing/heuristitcs/result.xlsx
+++ b/hueristics_and_routing/heuristitcs/result.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -416,40 +416,72 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>time</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>passenger_time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>passenger_wait</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dissatisfied</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>transfers</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>bus_wait</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>642.7679219733545</v>
+        <v>94.56761343596465</v>
       </c>
       <c r="E2" t="n">
-        <v>20.31457473333333</v>
+        <v>212.2144665833333</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>53.09177232916666</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64.824750325</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="3">
@@ -462,38 +494,62 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7679219733545</v>
+        <v>79.24886030618491</v>
       </c>
       <c r="E3" t="n">
-        <v>20.31457473333333</v>
+        <v>195.3982959333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>56.58319250833333</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48.36511357916667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>126.2008188974265</v>
+      </c>
+      <c r="E4" t="n">
+        <v>267.16426675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>85.555484515</v>
+      </c>
+      <c r="G4" t="n">
+        <v>95.51655524499999</v>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>597.75498125187</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.57566683333334</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="5">
@@ -506,38 +562,62 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>116.79922676028</v>
+      </c>
+      <c r="E5" t="n">
+        <v>294.3228028166667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>92.08596201333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>70.30815182666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>477.0098043965991</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22.88711776666668</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>948.1799861321342</v>
+        <v>111.0391926044274</v>
       </c>
       <c r="E6" t="n">
-        <v>18.92675466666674</v>
+        <v>290.0770224333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>30.10423989027777</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40.52475301805556</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.24999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -547,41 +627,65 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>128.2696691792225</v>
+        <v>114.0066276329708</v>
       </c>
       <c r="E7" t="n">
-        <v>40.58960979999995</v>
+        <v>302.0349009666666</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>43.46486129861111</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43.72800055555556</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>874.5798335453146</v>
+        <v>171.3545012857218</v>
       </c>
       <c r="E8" t="n">
-        <v>45.60432756666671</v>
+        <v>492.66611385</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>77.72996528833332</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82.52331107055554</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20.93333333333332</v>
       </c>
     </row>
     <row r="9">
@@ -591,41 +695,65 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>898.7174345861422</v>
+        <v>149.7103973183812</v>
       </c>
       <c r="E9" t="n">
-        <v>44.63159026666665</v>
+        <v>426.9902014666667</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>74.34595181222222</v>
+      </c>
+      <c r="G9" t="n">
+        <v>54.08411475555556</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.99999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>428.7113177718129</v>
+        <v>272.952289848338</v>
       </c>
       <c r="E10" t="n">
-        <v>4.48313306666671</v>
+        <v>655.4056387666667</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>41.04746992583333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>61.11670293083332</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="11">
@@ -635,41 +763,65 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>363.6739013949409</v>
+        <v>242.7586663597844</v>
       </c>
       <c r="E11" t="n">
-        <v>28.20906950000006</v>
+        <v>588.9327010166668</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>52.71665082083333</v>
+      </c>
+      <c r="G11" t="n">
+        <v>54.02911536416666</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>547.7573367974255</v>
+        <v>292.5924087247598</v>
       </c>
       <c r="E12" t="n">
-        <v>17.45390368333324</v>
+        <v>817.2176723833334</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>70.207668523</v>
+      </c>
+      <c r="G12" t="n">
+        <v>95.19968148800001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>43</v>
+      </c>
+      <c r="I12" t="n">
+        <v>35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>25.15000000000003</v>
       </c>
     </row>
     <row r="13">
@@ -679,41 +831,65 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>547.7573367974255</v>
+        <v>285.6544340335438</v>
       </c>
       <c r="E13" t="n">
-        <v>17.45390368333324</v>
+        <v>654.9068648166667</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.24598261499997</v>
+      </c>
+      <c r="G13" t="n">
+        <v>61.73857960866668</v>
+      </c>
+      <c r="H13" t="n">
+        <v>37</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21.20000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>721.0845278754132</v>
+        <v>230.7929330900313</v>
       </c>
       <c r="E14" t="n">
-        <v>47.74245885000005</v>
+        <v>542.8891735833332</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>41.96877654880952</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.39704013392857</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19.27142857142858</v>
       </c>
     </row>
     <row r="15">
@@ -723,41 +899,65 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>731.4994873754331</v>
+        <v>212.8424907469586</v>
       </c>
       <c r="E15" t="n">
-        <v>22.02163988333336</v>
+        <v>464.9088542</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>48.25543180952379</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50.69690827142858</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D16" t="n">
-        <v>841.5848877596436</v>
+        <v>259.9783686177319</v>
       </c>
       <c r="E16" t="n">
-        <v>27.62617048333323</v>
+        <v>851.4641767833333</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>91.32690291404762</v>
+      </c>
+      <c r="G16" t="n">
+        <v>87.56272088880958</v>
+      </c>
+      <c r="H16" t="n">
+        <v>66</v>
+      </c>
+      <c r="I16" t="n">
+        <v>59</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30.05000000000005</v>
       </c>
     </row>
     <row r="17">
@@ -767,41 +967,65 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>293.0564817967825</v>
+        <v>285.241218430474</v>
       </c>
       <c r="E17" t="n">
-        <v>8.144220766666649</v>
+        <v>656.5212848166667</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>89.41988066238095</v>
+      </c>
+      <c r="G17" t="n">
+        <v>52.63526006119049</v>
+      </c>
+      <c r="H17" t="n">
+        <v>58</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>25.14285714285717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>848.6064657588722</v>
+        <v>263.3855189731657</v>
       </c>
       <c r="E18" t="n">
-        <v>46.60815641666659</v>
+        <v>768.3311068500002</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>47.28701111898149</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60.91851544305554</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23.37222222222224</v>
       </c>
     </row>
     <row r="19">
@@ -811,41 +1035,65 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>303.9292160845362</v>
+        <v>222.386219875189</v>
       </c>
       <c r="E19" t="n">
-        <v>53.70323998333333</v>
+        <v>582.87621185</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>53.12305450509259</v>
+      </c>
+      <c r="G19" t="n">
+        <v>48.28147272037037</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>22.54444444444446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D20" t="n">
-        <v>448.2121697727125</v>
+        <v>303.2279472224899</v>
       </c>
       <c r="E20" t="n">
-        <v>11.83629648333317</v>
+        <v>794.1998941500001</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>92.27637490851855</v>
+      </c>
+      <c r="G20" t="n">
+        <v>92.37765105759257</v>
+      </c>
+      <c r="H20" t="n">
+        <v>74</v>
+      </c>
+      <c r="I20" t="n">
+        <v>68</v>
+      </c>
+      <c r="J20" t="n">
+        <v>33.52222222222222</v>
       </c>
     </row>
     <row r="21">
@@ -855,41 +1103,65 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D21" t="n">
-        <v>186.7221115144202</v>
+        <v>260.3643668461926</v>
       </c>
       <c r="E21" t="n">
-        <v>4.422495866666623</v>
+        <v>597.2821705999997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>83.29801484388888</v>
+      </c>
+      <c r="G21" t="n">
+        <v>68.49998461499996</v>
+      </c>
+      <c r="H21" t="n">
+        <v>71</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>28.94444444444447</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>67.15739480615593</v>
+        <v>310.3939753385523</v>
       </c>
       <c r="E22" t="n">
-        <v>56.78359380000052</v>
+        <v>896.94926605</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.99264446704547</v>
+      </c>
+      <c r="G22" t="n">
+        <v>52.05586740416666</v>
+      </c>
+      <c r="H22" t="n">
+        <v>23</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27.37727272727273</v>
       </c>
     </row>
     <row r="23">
@@ -899,41 +1171,65 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
-        <v>67.15739480615593</v>
+        <v>283.7719030703217</v>
       </c>
       <c r="E23" t="n">
-        <v>56.78359380000052</v>
+        <v>675.7129631499997</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>55.09103209659092</v>
+      </c>
+      <c r="G23" t="n">
+        <v>45.13671978295454</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26.46363636363638</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D24" t="n">
-        <v>861.7921812601853</v>
+        <v>374.086266564176</v>
       </c>
       <c r="E24" t="n">
-        <v>6.86291779999965</v>
+        <v>1241.857069483333</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>89.6064746212121</v>
+      </c>
+      <c r="G24" t="n">
+        <v>119.7585136865152</v>
+      </c>
+      <c r="H24" t="n">
+        <v>96</v>
+      </c>
+      <c r="I24" t="n">
+        <v>80</v>
+      </c>
+      <c r="J24" t="n">
+        <v>36.81818181818178</v>
       </c>
     </row>
     <row r="25">
@@ -943,41 +1239,65 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D25" t="n">
-        <v>57.91654975304846</v>
+        <v>345.7558329230999</v>
       </c>
       <c r="E25" t="n">
-        <v>11.67415100000017</v>
+        <v>906.2670924166667</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>86.2401847457576</v>
+      </c>
+      <c r="G25" t="n">
+        <v>57.06545699696967</v>
+      </c>
+      <c r="H25" t="n">
+        <v>81</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>32.72727272727272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D26" t="n">
-        <v>868.2245132206008</v>
+        <v>404.0846612007382</v>
       </c>
       <c r="E26" t="n">
-        <v>29.58016979999991</v>
+        <v>1108.17331245</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>45.28769995096153</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49.06179176025642</v>
+      </c>
+      <c r="H26" t="n">
+        <v>31</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="n">
+        <v>31.29230769230767</v>
       </c>
     </row>
     <row r="27">
@@ -987,41 +1307,65 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
+        <v>52</v>
+      </c>
+      <c r="D27" t="n">
+        <v>385.0501363719649</v>
+      </c>
+      <c r="E27" t="n">
+        <v>983.0921963166664</v>
+      </c>
+      <c r="F27" t="n">
+        <v>49.43202790032053</v>
+      </c>
+      <c r="G27" t="n">
+        <v>40.84653856794873</v>
+      </c>
+      <c r="H27" t="n">
         <v>24</v>
       </c>
-      <c r="D27" t="n">
-        <v>481.2080727429129</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.16152280000006</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>30.52307692307691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>greedy</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D28" t="n">
-        <v>560.4315571651096</v>
+        <v>416.9769991469974</v>
       </c>
       <c r="E28" t="n">
-        <v>36.63915679999991</v>
+        <v>1344.859084533334</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.0729159265384</v>
+      </c>
+      <c r="G28" t="n">
+        <v>96.05507723153843</v>
+      </c>
+      <c r="H28" t="n">
+        <v>118</v>
+      </c>
+      <c r="I28" t="n">
+        <v>104</v>
+      </c>
+      <c r="J28" t="n">
+        <v>41.04615384615374</v>
       </c>
     </row>
     <row r="29">
@@ -1031,41 +1375,65 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D29" t="n">
-        <v>144.2584183252184</v>
+        <v>422.1465218501249</v>
       </c>
       <c r="E29" t="n">
-        <v>23.99181600000065</v>
+        <v>970.2413731000004</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>91.60396128794872</v>
+      </c>
+      <c r="G29" t="n">
+        <v>48.07799208500001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>36.76923076923071</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D30" t="n">
-        <v>232.783588927472</v>
+        <v>459.3049083140722</v>
       </c>
       <c r="E30" t="n">
-        <v>47.3355512833341</v>
+        <v>1203.206709416666</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.43884080305554</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51.53204094055555</v>
+      </c>
+      <c r="H30" t="n">
+        <v>32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>35.64666666666663</v>
       </c>
     </row>
     <row r="31">
@@ -1075,19 +1443,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D31" t="n">
-        <v>232.783588927472</v>
+        <v>402.3869213099135</v>
       </c>
       <c r="E31" t="n">
-        <v>47.3355512833341</v>
+        <v>919.8969625166673</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>61.71496590055555</v>
+      </c>
+      <c r="G31" t="n">
+        <v>37.51170732999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>28</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>34.5333333333333</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L31" t="n">
+        <v>18179</v>
       </c>
     </row>
     <row r="32">
@@ -1097,41 +1483,77 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>553.6321877402952</v>
+        <v>73.06818951282308</v>
       </c>
       <c r="E32" t="n">
-        <v>17.04317311666637</v>
+        <v>240.30104885</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>63.11109476666665</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32.47415280166668</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>11040</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>916.5275729757268</v>
+        <v>119.3439733867715</v>
       </c>
       <c r="E33" t="n">
-        <v>34.67926749999924</v>
+        <v>292.0176132166667</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>84.51608054166665</v>
+      </c>
+      <c r="G33" t="n">
+        <v>56.38109458</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L33" t="n">
+        <v>11040</v>
       </c>
     </row>
     <row r="34">
@@ -1141,19 +1563,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>916.5275729757268</v>
+        <v>102.810362225989</v>
       </c>
       <c r="E34" t="n">
-        <v>34.67926749999924</v>
+        <v>259.0583643833333</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>82.78930891833335</v>
+      </c>
+      <c r="G34" t="n">
+        <v>84.39584163833334</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1040</v>
       </c>
     </row>
     <row r="35">
@@ -1163,19 +1603,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>85.1124626705423</v>
+        <v>76.58490349707697</v>
       </c>
       <c r="E35" t="n">
-        <v>48.95521896666605</v>
+        <v>226.2014261</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>81.17853520833334</v>
+      </c>
+      <c r="G35" t="n">
+        <v>40.77883895</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.900000000000002</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1040</v>
       </c>
     </row>
     <row r="36">
@@ -1185,19 +1643,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>822.6587967458181</v>
+        <v>106.9084569480365</v>
       </c>
       <c r="E36" t="n">
-        <v>4.364584666666815</v>
+        <v>267.8751965333333</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>69.97177007666667</v>
+      </c>
+      <c r="G36" t="n">
+        <v>84.64577371333334</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1040</v>
       </c>
     </row>
     <row r="37">
@@ -1207,19 +1683,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>358.2637687600218</v>
+        <v>121.6550388707916</v>
       </c>
       <c r="E37" t="n">
-        <v>57.25282379999999</v>
+        <v>302.1744912333334</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70.64131548518519</v>
+      </c>
+      <c r="G37" t="n">
+        <v>86.76927642037036</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1040</v>
       </c>
     </row>
     <row r="38">
@@ -1229,19 +1723,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>876.2048105942085</v>
+        <v>108.3744677716128</v>
       </c>
       <c r="E38" t="n">
-        <v>6.243461100000786</v>
+        <v>313.16891755</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>101.1125825716667</v>
+      </c>
+      <c r="G38" t="n">
+        <v>55.24109036666666</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>13</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L38" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -1251,19 +1763,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>124.6155862307642</v>
+        <v>152.7776034620636</v>
       </c>
       <c r="E39" t="n">
-        <v>7.811352450000868</v>
+        <v>340.48680215</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>78.45392886666666</v>
+      </c>
+      <c r="G39" t="n">
+        <v>79.81681582666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L39" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="40">
@@ -1273,19 +1803,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>150.6909244614653</v>
+        <v>111.886982662814</v>
       </c>
       <c r="E40" t="n">
-        <v>7.829381866668882</v>
+        <v>271.33589165</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>63.89462112777777</v>
+      </c>
+      <c r="G40" t="n">
+        <v>51.1658677361111</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8.900000000000002</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L40" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="41">
@@ -1295,41 +1843,77 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>520.1484631183557</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E41" t="n">
-        <v>54.7035493333351</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G41" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L41" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>642.058284324361</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E42" t="n">
-        <v>40.4405168000003</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G42" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L42" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="43">
@@ -1339,19 +1923,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>642.058284324361</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E43" t="n">
-        <v>40.4405168000003</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G43" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L43" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="44">
@@ -1361,19 +1963,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>836.0277959888335</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E44" t="n">
-        <v>40.34617185000207</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G44" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L44" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="45">
@@ -1383,19 +2003,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>524.5183579868171</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E45" t="n">
-        <v>37.54547608333087</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G45" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L45" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="46">
@@ -1405,41 +2043,77 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>534.6393749127164</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E46" t="n">
-        <v>43.43480576667298</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G46" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L46" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>new_heuristic</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>687.5053024478257</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E47" t="n">
-        <v>40.39948190000041</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L47" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="48">
@@ -1449,19 +2123,717 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>687.5053024478257</v>
+        <v>134.581130784437</v>
       </c>
       <c r="E48" t="n">
-        <v>40.39948190000041</v>
+        <v>379.5877189666666</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G48" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L48" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E49" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F49" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G49" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L49" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E50" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G50" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L50" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E51" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G51" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L51" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E52" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G52" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L52" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E53" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G53" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L53" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E54" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G54" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L54" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E55" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G55" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L55" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E56" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G56" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L56" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E57" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G57" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L57" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E58" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G58" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L58" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E59" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G59" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L59" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E60" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G60" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L60" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E61" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G61" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L61" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E62" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G62" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L62" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E63" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G63" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L63" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E64" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G64" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L64" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>134.581130784437</v>
+      </c>
+      <c r="E65" t="n">
+        <v>379.5877189666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>106.8477658520833</v>
+      </c>
+      <c r="G65" t="n">
+        <v>45.22647803958333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L65" t="n">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
